--- a/Analise_Acumulo_Contas/Geral2014_17_d.xlsx
+++ b/Analise_Acumulo_Contas/Geral2014_17_d.xlsx
@@ -15411,6 +15411,258 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>201606</t>
+        </is>
+      </c>
+      <c r="C731" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D731" s="1" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="E731" s="1" t="n">
+        <v>9272.0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>201609</t>
+        </is>
+      </c>
+      <c r="C732" s="1" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D732" s="1" t="n">
+        <v>3588.49</v>
+      </c>
+      <c r="E732" s="1" t="n">
+        <v>12859.25</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>201610</t>
+        </is>
+      </c>
+      <c r="C733" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D733" s="1" t="n">
+        <v>2103.35</v>
+      </c>
+      <c r="E733" s="1" t="n">
+        <v>-17.6</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>201611</t>
+        </is>
+      </c>
+      <c r="C734" s="1" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D734" s="1" t="n">
+        <v>20505.7</v>
+      </c>
+      <c r="E734" s="1" t="n">
+        <v>24734.9</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>201612</t>
+        </is>
+      </c>
+      <c r="C735" s="1" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D735" s="1" t="n">
+        <v>29310.71</v>
+      </c>
+      <c r="E735" s="1" t="n">
+        <v>23727.26</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>201701</t>
+        </is>
+      </c>
+      <c r="C736" s="1" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="D736" s="1" t="n">
+        <v>5514.53</v>
+      </c>
+      <c r="E736" s="1" t="n">
+        <v>27433.4</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>201702</t>
+        </is>
+      </c>
+      <c r="C737" s="1" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D737" s="1" t="n">
+        <v>1195.99</v>
+      </c>
+      <c r="E737" s="1" t="n">
+        <v>57195.55</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>201703</t>
+        </is>
+      </c>
+      <c r="C738" s="1" t="n">
+        <v>9332.0</v>
+      </c>
+      <c r="D738" s="1" t="n">
+        <v>189344.93</v>
+      </c>
+      <c r="E738" s="1" t="n">
+        <v>228220.14</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>201704</t>
+        </is>
+      </c>
+      <c r="C739" s="1" t="n">
+        <v>39112.0</v>
+      </c>
+      <c r="D739" s="1" t="n">
+        <v>1336889.56</v>
+      </c>
+      <c r="E739" s="1" t="n">
+        <v>1105104.39</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>201705</t>
+        </is>
+      </c>
+      <c r="C740" s="1" t="n">
+        <v>536619.0</v>
+      </c>
+      <c r="D740" s="1" t="n">
+        <v>7027827.35</v>
+      </c>
+      <c r="E740" s="1" t="n">
+        <v>855620.66</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>201706</t>
+        </is>
+      </c>
+      <c r="C741" s="1" t="n">
+        <v>3553504.0</v>
+      </c>
+      <c r="D741" s="1" t="n">
+        <v>4.903961933E7</v>
+      </c>
+      <c r="E741" s="1" t="n">
+        <v>170144.74</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>201707</t>
+        </is>
+      </c>
+      <c r="C742" s="1" t="n">
+        <v>2828194.0</v>
+      </c>
+      <c r="D742" s="1" t="n">
+        <v>6.924801487E7</v>
+      </c>
+      <c r="E742" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -15433,7 +15685,7 @@
         sum(nvl(fc.VAL_APROVADO_ITEM,0)) VA,
         sum(nvl(fc.VALOR_PAGO_REVISAO,0)) VR
 from    TS.FAT_ITEM_CONTA fc
-where   substr(fc.ID_TEMPO_MES_ANO_REF,1,6) between '201401' and '201706'
+where   substr(fc.ID_TEMPO_MES_ANO_REF,1,6) between '201401' and '201707'
 and     substr(to_char(DATA_ATENDIMENTO, 'RRRR'),1,3) = '201'
 group by substr(fc.ID_TEMPO_MES_ANO_REF,1,6),
          to_char(DATA_ATENDIMENTO, 'RRRRMM')
